--- a/clusters.xlsx
+++ b/clusters.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -384,144 +384,719 @@
           <t>cluster 2</t>
         </is>
       </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>cluster 3</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>cluster 3</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>cluster 3</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Ölpreis</t>
+          <t>Familienkonstellation</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Steigt</t>
+          <t>Mutter, Vater, Kind</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Bleibt gleich</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>fällt</t>
+          <t>Patchwork</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Steigt</t>
+          <t>Mutter, Vater, Kind</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Bleibt gleich</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>fällt</t>
+          <t>Patchwork</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Mutter, Vater, Kind</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Patchwork</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="B3" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.3702882483370288</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.6297117516629712</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.2025316455696203</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.7974683544303798</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.1815856777493606</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.8184143222506394</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Wohnungsgröße</t>
+          <t>Bodenbeschaffenheit</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>konstant</t>
+          <t>Teppich</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Wird größer</t>
+          <t>Fliesen</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Hartboden</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>konstant</t>
+          <t>Teppich</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Wird größer</t>
+          <t>Fliesen</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Hartboden</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Teppich</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Fliesen</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Hartboden</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="B5" t="n">
-        <v>0.5</v>
+        <v>0.1729490022172949</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5</v>
+        <v>0.4168514412416852</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.41019955654102</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5</v>
+        <v>0.379746835443038</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5</v>
+        <v>0.3164556962025317</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.3037974683544304</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.2966751918158568</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.3452685421994885</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.3580562659846547</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Klima</t>
+          <t>Häufigkeit von Haustieren</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>heißer</t>
+          <t>Kaum Haustiere</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>sehr viel heißer</t>
+          <t>Viele Kleintiere</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Viele große Tiere</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>heißer</t>
+          <t>Kaum Haustiere</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>sehr viel heißer</t>
+          <t>Viele Kleintiere</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Viele große Tiere</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Kaum Haustiere</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Viele Kleintiere</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Viele große Tiere</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="B7" t="n">
+        <v>0.237250554323725</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.3104212860310421</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.4523281596452328</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.5443037974683544</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.1392405063291139</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.3164556962025317</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.04859335038363171</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.2634271099744245</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.6879795396419437</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Art des Wohnens</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Allein</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>WG</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Familie</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Allein</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>WG</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Familie</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Allein</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>WG</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Familie</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="n">
+        <v>0.434589800443459</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.05099778270509978</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5144124168514412</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.06329113924050633</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.8227848101265823</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.1139240506329114</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.1381074168797954</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.3861892583120204</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.4757033248081842</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Besitzer der Gebäudeautomatisierung</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Wohnungsbesitzer</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Bewohner</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Wohnungsbesitzer</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Bewohner</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Wohnungsbesitzer</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Bewohner</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="n">
+        <v>0.4833702882483371</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.5166297117516629</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.5949367088607594</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.4050632911392405</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.370843989769821</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.629156010230179</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Verschmutzungsstärke</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Wenig</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Stark</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Wenig</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Stark</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Wenig</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Stark</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="n">
+        <v>0.6385809312638581</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.3614190687361419</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.2594936708860759</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.740506329113924</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.01023017902813299</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.9897698209718671</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Putzkultur</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Faul und wenig</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Gründlich und häufig</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Faul und wenig</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Gründlich und häufig</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Faul und wenig</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Gründlich und häufig</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="n">
+        <v>0.01330376940133038</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.9866962305986696</v>
+      </c>
+      <c r="E15" t="n">
         <v>1</v>
       </c>
-      <c r="C7" t="n">
+      <c r="F15" t="n">
         <v>0</v>
       </c>
-      <c r="E7" t="n">
+      <c r="H15" t="n">
+        <v>0.59846547314578</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.40153452685422</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Hygienebewusstsein</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>gering</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Stark ausgeprägt</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>gering</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Stark ausgeprägt</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>gering</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Stark ausgeprägt</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="n">
+        <v>0.04212860310421286</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.9578713968957872</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" t="n">
         <v>0</v>
       </c>
-      <c r="F7" t="n">
-        <v>1</v>
+      <c r="H17" t="n">
+        <v>0.710997442455243</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.289002557544757</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Zeit zu Hause</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Kaum</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Viel</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Kaum</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Viel</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Kaum</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Viel</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="n">
+        <v>0.2682926829268293</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.7317073170731707</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.9430379746835443</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.05696202531645569</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.007672634271099744</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.9923273657289002</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Produktionskosten</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Gering</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Hoch</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Gering</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Hoch</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Gering</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Hoch</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="n">
+        <v>0.5011086474501109</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.4988913525498891</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.4556962025316456</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.5443037974683544</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.4987212276214834</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.5012787723785166</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Art der Verbindung mit dem Internet</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Heimnetz</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Mobil</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Heimnetz</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Mobil</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Heimnetz</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Mobil</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" t="n">
+        <v>0.5587583148558758</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.4412416851441242</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.5189873417721519</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.4810126582278481</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.5217391304347826</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.4782608695652174</v>
       </c>
     </row>
   </sheetData>
